--- a/PLN/Recap PLN.xlsx
+++ b/PLN/Recap PLN.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\PLN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A587BA70-DB42-44C4-BD43-4B95A27FA7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958872E1-6E14-4EF9-9D4C-E7EF9D08CBD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="3420" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-4185" yWindow="2700" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Price of Fuel" sheetId="1" r:id="rId1"/>
+    <sheet name="Production" sheetId="2" r:id="rId2"/>
+    <sheet name="Kapasitas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Year</t>
   </si>
@@ -61,6 +63,33 @@
   </si>
   <si>
     <t>Rp/kWh</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Nett Production (GWh)</t>
+  </si>
+  <si>
+    <t>Kapasitas Terpasang (MW)</t>
+  </si>
+  <si>
+    <t>Kapasitas Terpasang (GW)</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>Kapasitas Terpasang Nasional (MW)</t>
+  </si>
+  <si>
+    <t>PLTU</t>
+  </si>
+  <si>
+    <t>PLTGU</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -124,17 +153,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -429,7 +460,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -438,42 +469,42 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2009</v>
       </c>
       <c r="B3" s="2">
@@ -499,7 +530,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2010</v>
       </c>
       <c r="B4" s="1">
@@ -525,7 +556,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>2011</v>
       </c>
       <c r="B5" s="1">
@@ -551,7 +582,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>2012</v>
       </c>
       <c r="B6" s="1">
@@ -577,7 +608,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>2013</v>
       </c>
       <c r="B7" s="1">
@@ -603,7 +634,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2014</v>
       </c>
       <c r="B8" s="1">
@@ -629,7 +660,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>2015</v>
       </c>
       <c r="B9" s="1">
@@ -655,7 +686,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>2016</v>
       </c>
       <c r="B10" s="1">
@@ -681,7 +712,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>2017</v>
       </c>
       <c r="B11" s="1">
@@ -714,4 +745,152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C4C96C-614D-4A96-A40B-4AD428643CF7}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="7">
+        <v>23019.599999999999</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4401.1400000000003</v>
+      </c>
+      <c r="D2">
+        <f>C2/1000</f>
+        <v>4.4011400000000007</v>
+      </c>
+      <c r="E2">
+        <f>B2/D2</f>
+        <v>5230.3721308570039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>23536.89</v>
+      </c>
+      <c r="C3">
+        <v>5004.1400000000003</v>
+      </c>
+      <c r="D3">
+        <f>C3/1000</f>
+        <v>5.0041400000000005</v>
+      </c>
+      <c r="E3">
+        <f>B3/D3</f>
+        <v>4703.4835156490417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB67881C-CD0A-401E-84C3-5FEB5AFD15D1}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="D3">
+        <f>SUM(B3:C3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2170</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2231.14</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">SUM(B4:C4)</f>
+        <v>4401.1399999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2170</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2834.14</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>5004.1399999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PLN/Recap PLN.xlsx
+++ b/PLN/Recap PLN.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\PLN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958872E1-6E14-4EF9-9D4C-E7EF9D08CBD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68D5001-31F8-4153-A94C-D09A62966284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-4185" yWindow="2700" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="1995" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unit Price of Fuel" sheetId="1" r:id="rId1"/>
-    <sheet name="Production" sheetId="2" r:id="rId2"/>
-    <sheet name="Kapasitas" sheetId="3" r:id="rId3"/>
+    <sheet name="PLN" sheetId="4" r:id="rId1"/>
+    <sheet name="Unit Price of Fuel" sheetId="1" r:id="rId2"/>
+    <sheet name="Production" sheetId="2" r:id="rId3"/>
+    <sheet name="Kapasitas" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -90,6 +91,42 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>PLTA Hydro</t>
+  </si>
+  <si>
+    <t>PLTP Geothermal</t>
+  </si>
+  <si>
+    <t>PLTU Steam Oil</t>
+  </si>
+  <si>
+    <t>PLTU-B Steam Coal</t>
+  </si>
+  <si>
+    <t>PLTD Diesel</t>
+  </si>
+  <si>
+    <t>PLTG-M Gas Turbine</t>
+  </si>
+  <si>
+    <t>PLTG-G Natural Gas Turbine</t>
+  </si>
+  <si>
+    <t>PLTGU-M Combined Cycle</t>
+  </si>
+  <si>
+    <t>PLTGU-G Combined Cycle</t>
+  </si>
+  <si>
+    <t>PLTM-G Machine Gas</t>
+  </si>
+  <si>
+    <t>PLT Bayu Wind Power</t>
   </si>
 </sst>
 </file>
@@ -158,14 +195,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,6 +482,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EC65A7-57EA-4AC6-AB20-E6BC900AC32E}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -460,15 +581,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
@@ -480,7 +601,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -747,7 +868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C4C96C-614D-4A96-A40B-4AD428643CF7}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -783,10 +904,10 @@
       <c r="A2">
         <v>2017</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>23019.599999999999</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>4401.1400000000003</v>
       </c>
       <c r="D2">
@@ -822,11 +943,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB67881C-CD0A-401E-84C3-5FEB5AFD15D1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
@@ -864,10 +985,10 @@
       <c r="A4">
         <v>2017</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>2170</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>2231.14</v>
       </c>
       <c r="D4">
@@ -879,10 +1000,10 @@
       <c r="A5">
         <v>2018</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>2170</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>2834.14</v>
       </c>
       <c r="D5">
